--- a/pred_ohlcv/54_21/2019-10-25 GXC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-25 GXC ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>-7377.750499999998</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-7377.750499999998</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-7377.750499999998</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-7377.750499999998</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-7377.750499999998</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-7305.604499999999</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-7377.750499999998</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-7377.750499999998</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-7377.750499999998</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-7477.599499999998</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-7476.599499999998</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-8560.855199999998</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-8559.855199999998</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-9456.484899999999</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-11204.6543</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-11203.6543</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-9981.548917329999</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-9171.315317330002</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-9115.443717330001</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-9114.443717330001</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-2190.066717330001</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-452.2422000000006</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-521.8664000000006</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-292.1362930400005</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-292.1362930400005</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-292.1362930400005</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-292.1362930400005</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-292.1362930400005</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-292.1362930400005</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-292.1362930400005</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-428.1597930400005</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-427.1597930400005</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-427.1597930400005</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-427.1597930400005</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-548.9592930400005</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-538.8205930400005</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-25 GXC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-25 GXC ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>-7377.750499999998</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-7377.750499999998</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-7377.750499999998</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-7305.604499999999</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-7377.750499999998</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-7377.750499999998</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-7377.750499999998</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-7477.599499999998</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-7476.599499999998</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-8559.855199999998</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-9413.347099999999</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-8299.792799999999</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-11648.3229</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-11203.6543</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-10844.0543</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-12046.9356</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-11767.9746</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-12383.7903</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-12382.7903</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-12382.7903</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-12089.937</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-12245.054</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-10085.944</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-7521.0946</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-9932.255217329999</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-9931.255217329999</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-9981.548917329999</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-9821.548917329999</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-9486.02461733</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-9384.573917330001</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-9419.708617330001</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-9565.520417330001</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-9171.315317330002</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-9418.785417330002</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-9115.443717330001</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-9114.443717330001</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-1870.066717330001</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-2190.066717330001</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-452.2422000000006</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-521.8664000000006</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-292.1362930400005</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-292.1362930400005</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-292.1362930400005</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-292.1362930400005</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-292.1362930400005</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-428.1597930400005</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-427.1597930400005</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-548.9592930400005</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-310.7007930400005</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-538.8205930400005</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
